--- a/excels/英雄表.xlsx
+++ b/excels/英雄表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\x-template\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\XTemplate\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF3725E-2105-47BB-876B-10BF36337C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6501A1-E031-4033-94EE-A5A46B648831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heroes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
   <si>
     <t>主键</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,27 +227,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>npc_dota_hero_phoenix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>models/heroes/phoenix/phoenix_bird.vmdl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ModelScale</t>
   </si>
   <si>
     <t>DisableWearables</t>
   </si>
   <si>
-    <t>crystal_nova_x</t>
-  </si>
-  <si>
     <t>Ability1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,12 +293,6 @@
     <t>Ability18</t>
   </si>
   <si>
-    <t>counter_helix_x</t>
-  </si>
-  <si>
-    <t>tiny_toss_x</t>
-  </si>
-  <si>
     <t>generic_hidden</t>
   </si>
   <si>
@@ -351,65 +334,103 @@
     <t>ProjectileSpeed</t>
   </si>
   <si>
-    <t>DOTA_ATTRIBUTE_STRENGTH</t>
+    <t>AttributeBaseStrength</t>
+  </si>
+  <si>
+    <t>AttributeStrengthGain</t>
+  </si>
+  <si>
+    <t>AttributeBaseIntelligence</t>
+  </si>
+  <si>
+    <t>AttributeIntelligenceGain</t>
+  </si>
+  <si>
+    <t>AttributeBaseAgility</t>
+  </si>
+  <si>
+    <t>AttributeAgilityGain</t>
+  </si>
+  <si>
+    <t>MovementCapabilities</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovementSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovementTurnRate</t>
+  </si>
+  <si>
+    <t>StatusHealth</t>
+  </si>
+  <si>
+    <t>StatusMana</t>
+  </si>
+  <si>
+    <t>StatusManaRegen</t>
+  </si>
+  <si>
+    <t>StatusHealthRegen</t>
+  </si>
+  <si>
+    <t>VisionDaytimeRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisionNighttimeRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasInventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_dota_hero_tinker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>models/heroes/tinker/tinker.vmdl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinker_laser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinker_heat_seeking_missile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinker_defense_matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinker_warp_grenade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinker_keen_teleport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinker_rearm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinker_eureka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AttributePrimary</t>
-  </si>
-  <si>
-    <t>AttributeBaseStrength</t>
-  </si>
-  <si>
-    <t>AttributeStrengthGain</t>
-  </si>
-  <si>
-    <t>AttributeBaseIntelligence</t>
-  </si>
-  <si>
-    <t>AttributeIntelligenceGain</t>
-  </si>
-  <si>
-    <t>AttributeBaseAgility</t>
-  </si>
-  <si>
-    <t>AttributeAgilityGain</t>
-  </si>
-  <si>
-    <t>MovementCapabilities</t>
-  </si>
-  <si>
-    <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MovementSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MovementTurnRate</t>
-  </si>
-  <si>
-    <t>StatusHealth</t>
-  </si>
-  <si>
-    <t>StatusMana</t>
-  </si>
-  <si>
-    <t>StatusManaRegen</t>
-  </si>
-  <si>
-    <t>StatusHealthRegen</t>
-  </si>
-  <si>
-    <t>VisionDaytimeRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VisionNighttimeRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HasInventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ATTRIBUTE_INTELLECT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -796,28 +817,27 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
+      <selection pane="bottomRight" activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1"/>
-    <col min="6" max="23" width="13.640625" style="2" customWidth="1"/>
-    <col min="24" max="25" width="9.140625" style="3"/>
-    <col min="26" max="34" width="9.140625" style="4"/>
-    <col min="35" max="41" width="9.140625" style="5"/>
-    <col min="42" max="44" width="9.140625" style="6"/>
-    <col min="45" max="48" width="9.140625" style="2"/>
-    <col min="49" max="51" width="9.140625" style="1"/>
-    <col min="52" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.125" style="1"/>
+    <col min="6" max="23" width="13.625" style="2" customWidth="1"/>
+    <col min="24" max="25" width="9.125" style="3"/>
+    <col min="26" max="34" width="9.125" style="4"/>
+    <col min="35" max="41" width="9.125" style="5"/>
+    <col min="42" max="44" width="9.125" style="6"/>
+    <col min="45" max="48" width="9.125" style="2"/>
+    <col min="49" max="51" width="9.125" style="1"/>
+    <col min="52" max="16384" width="9.125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,7 +992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -980,162 +1000,162 @@
         <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Z2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AC2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AI2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AK2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AL2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AO2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AH2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AP2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="AJ2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AR2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AU2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AN2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AW2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AY2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AS2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>111</v>
-      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1144,58 +1164,58 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="X3" s="3">
         <v>0</v>
@@ -1204,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AA3" s="4">
         <v>100</v>
@@ -1225,7 +1245,7 @@
         <v>600</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="AJ3" s="5">
         <v>0</v>
@@ -1246,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="AP3" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="AQ3" s="6">
         <v>550</v>

--- a/excels/英雄表.xlsx
+++ b/excels/英雄表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\XTemplate\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6501A1-E031-4033-94EE-A5A46B648831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7486B1EC-179C-4BAB-9814-4AD9A040AB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="5130" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heroes" sheetId="1" r:id="rId1"/>
@@ -306,10 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DOTA_UNIT_CAP_NO_ATTACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BaseAttackSpeed</t>
   </si>
   <si>
@@ -431,6 +427,10 @@
   </si>
   <si>
     <t>DOTA_ATTRIBUTE_INTELLECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_RANGED_ATTACK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,10 +817,10 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM14" sqref="AM14"/>
+      <selection pane="bottomRight" activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1072,79 +1072,79 @@
         <v>78</v>
       </c>
       <c r="AA2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AI2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AK2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AL2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AL2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AN2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="AQ2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AW2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AV2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.2">
@@ -1152,10 +1152,10 @@
         <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1164,25 +1164,25 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>75</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AA3" s="4">
         <v>100</v>
       </c>
       <c r="AB3" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC3" s="4">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AD3" s="4">
         <v>1</v>
@@ -1245,7 +1245,7 @@
         <v>600</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ3" s="5">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="AP3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AQ3" s="6">
         <v>550</v>
@@ -1275,10 +1275,10 @@
         <v>0.8</v>
       </c>
       <c r="AS3" s="2">
-        <v>10000</v>
+        <v>600</v>
       </c>
       <c r="AT3" s="2">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AU3" s="2">
         <v>0</v>

--- a/excels/英雄表.xlsx
+++ b/excels/英雄表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\XTemplate\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7486B1EC-179C-4BAB-9814-4AD9A040AB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E86A2A-5A97-4579-BF09-02578203D427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="5130" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,10 +817,10 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC3" sqref="AC3"/>
+      <selection pane="bottomRight" activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="AN3" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO3" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP3" s="6" t="s">
         <v>94</v>

--- a/excels/英雄表.xlsx
+++ b/excels/英雄表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\XTemplate\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E86A2A-5A97-4579-BF09-02578203D427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9B8067-38F0-4913-BEB8-73D08F0ADD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="5130" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,10 +817,10 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO3" sqref="AO3"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
